--- a/PVB Stage Applicatie/App_Data/ExcelTemplates/BedrijfInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/ExcelTemplates/BedrijfInvoegen.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PVBStageApplicatie\PVBStageApplicatie\PVB Stage Applicatie\App_Data\ExcelTemplates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
@@ -14,9 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Bedrijfsnaam</t>
+  </si>
+  <si>
+    <t>KvKNummer</t>
+  </si>
+  <si>
+    <t>Plaats</t>
+  </si>
+  <si>
+    <t>Straatnaam</t>
+  </si>
+  <si>
+    <t>Huisnummer</t>
+  </si>
+  <si>
+    <t>Toevoeging</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Telefoonnumer</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -87,8 +119,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,14 +128,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,9 +176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,27 +422,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A939" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N963" sqref="N963"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="XDl/LqIw7xmns7EV6DOf+hNlZmwrvjpGQf8yHosPcUNNlBdR2c6Ze2yduRDxB433zwu8GLF33BNhAZmEXD+l8g==" saltValue="uKyi2zdKuVdbr5JbmobJDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange password="CF7A" sqref="A2:A999" name="Bereik1"/>
+    <protectedRange sqref="A2:I999" name="Bereik1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
